--- a/ゲーム仕様書.xlsx
+++ b/ゲーム仕様書.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BUFFALO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\teamproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6597F247-3C9D-4F10-BAE5-03D6201FD290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ゲームUI" sheetId="1" r:id="rId1"/>
-    <sheet name="ゲーム画面" sheetId="2" r:id="rId2"/>
+    <sheet name="ステージセレクト" sheetId="3" r:id="rId2"/>
+    <sheet name="ゲーム画面" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -809,7 +808,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1166,6 +1165,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,18 +1184,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5361,10 +5360,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -5408,16 +5407,16 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
@@ -5432,185 +5431,185 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
@@ -5693,10 +5692,10 @@
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -5705,10 +5704,10 @@
       <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -5717,10 +5716,10 @@
       <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -5729,10 +5728,10 @@
       <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -5741,10 +5740,10 @@
       <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -5753,10 +5752,10 @@
       <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -5765,10 +5764,10 @@
       <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
@@ -5793,10 +5792,10 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -5817,10 +5816,10 @@
       <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -5829,10 +5828,10 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -5841,10 +5840,10 @@
       <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -5853,10 +5852,10 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -5865,10 +5864,10 @@
       <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -5877,10 +5876,10 @@
       <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -5889,10 +5888,10 @@
       <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
@@ -5917,10 +5916,10 @@
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -5941,10 +5940,10 @@
       <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -5953,10 +5952,10 @@
       <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -5965,10 +5964,10 @@
       <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="16"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -5977,10 +5976,10 @@
       <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -5989,10 +5988,10 @@
       <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -6002,10 +6001,10 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -6014,10 +6013,10 @@
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="16"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -6042,10 +6041,10 @@
       <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -6066,10 +6065,10 @@
       <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="16"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -6078,10 +6077,10 @@
       <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="16"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -6090,10 +6089,10 @@
       <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="16"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
@@ -6102,10 +6101,10 @@
       <c r="J60" s="18"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="16"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -6114,10 +6113,10 @@
       <c r="J61" s="18"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="16"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
@@ -6126,10 +6125,10 @@
       <c r="J62" s="18"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="16"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
@@ -6138,10 +6137,10 @@
       <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="16"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
@@ -6150,10 +6149,10 @@
       <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="16"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -6162,10 +6161,10 @@
       <c r="J65" s="18"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
@@ -6174,10 +6173,10 @@
       <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="10"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="16"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -6186,10 +6185,10 @@
       <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="16"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
@@ -6198,10 +6197,10 @@
       <c r="J68" s="18"/>
     </row>
     <row r="69" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
@@ -6226,10 +6225,10 @@
       <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="8"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="16"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
@@ -6250,10 +6249,10 @@
       <c r="J72" s="18"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="12"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="16"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
@@ -6262,10 +6261,10 @@
       <c r="J73" s="18"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="16"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
@@ -6274,10 +6273,10 @@
       <c r="J74" s="18"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A75" s="10"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="16"/>
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
@@ -6286,10 +6285,10 @@
       <c r="J75" s="18"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="10"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="12"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="16"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
@@ -6298,10 +6297,10 @@
       <c r="J76" s="18"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" s="10"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="16"/>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
@@ -6310,10 +6309,10 @@
       <c r="J77" s="18"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="16"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
@@ -6322,10 +6321,10 @@
       <c r="J78" s="18"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A79" s="10"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="16"/>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
@@ -6334,10 +6333,10 @@
       <c r="J79" s="18"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="16"/>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
@@ -6346,10 +6345,10 @@
       <c r="J80" s="18"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="10"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="16"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
@@ -6358,10 +6357,10 @@
       <c r="J81" s="18"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="10"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="16"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
@@ -6370,10 +6369,10 @@
       <c r="J82" s="18"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A83" s="10"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="16"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
@@ -6382,10 +6381,10 @@
       <c r="J83" s="18"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="16"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
@@ -6394,10 +6393,10 @@
       <c r="J84" s="18"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="10"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="16"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
@@ -6406,10 +6405,10 @@
       <c r="J85" s="18"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" s="10"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="12"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="16"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
@@ -6418,10 +6417,10 @@
       <c r="J86" s="18"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A87" s="10"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="12"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="16"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
@@ -6430,10 +6429,10 @@
       <c r="J87" s="18"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="16"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -6442,10 +6441,10 @@
       <c r="J88" s="18"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="16"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
@@ -6454,10 +6453,10 @@
       <c r="J89" s="18"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="12"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="16"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
@@ -6466,10 +6465,10 @@
       <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="16"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
@@ -6478,10 +6477,10 @@
       <c r="J91" s="18"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="16"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -6490,10 +6489,10 @@
       <c r="J92" s="18"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="16"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
@@ -6502,10 +6501,10 @@
       <c r="J93" s="18"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="16"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
@@ -6514,10 +6513,10 @@
       <c r="J94" s="18"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="16"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
@@ -6526,10 +6525,10 @@
       <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
       <c r="E96" s="19"/>
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
@@ -6539,6 +6538,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A70:D71"/>
+    <mergeCell ref="A72:D96"/>
+    <mergeCell ref="E70:J96"/>
+    <mergeCell ref="A47:D54"/>
+    <mergeCell ref="E45:J54"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="A57:D69"/>
+    <mergeCell ref="E55:J69"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A37:D44"/>
     <mergeCell ref="E35:J44"/>
@@ -6551,14 +6558,6 @@
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="A27:D34"/>
     <mergeCell ref="E25:J34"/>
-    <mergeCell ref="A70:D71"/>
-    <mergeCell ref="A72:D96"/>
-    <mergeCell ref="E70:J96"/>
-    <mergeCell ref="A47:D54"/>
-    <mergeCell ref="E45:J54"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="A57:D69"/>
-    <mergeCell ref="E55:J69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6568,10 +6567,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
@@ -6587,8 +6601,8 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="43"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">

--- a/ゲーム仕様書.xlsx
+++ b/ゲーム仕様書.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="ゲームUI" sheetId="1" r:id="rId1"/>
-    <sheet name="ステージセレクト" sheetId="3" r:id="rId2"/>
-    <sheet name="ゲーム画面" sheetId="2" r:id="rId3"/>
+    <sheet name="ステージセレクト" sheetId="3" r:id="rId1"/>
+    <sheet name="ゲーム画面" sheetId="2" r:id="rId2"/>
+    <sheet name="ゲームUI" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ゲームUI仕様</t>
     <rPh sb="5" eb="7">
@@ -801,6 +801,258 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト仕様書</t>
+    <rPh sb="8" eb="11">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印が指し示している所が自分の国になります。そこから他国を殲滅して自分の国の領土を広げます。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サシシメ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タコク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センメツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>リョウド</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の国の名前を決めてからステージ選択画面にきます。ステージ選択画面に来たら今回統一する大陸アド・ナチオ大陸(adunatio')の全体マップが表示されます。マップの中の背景一部が青くなっていますそれが↓の説明に続きます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タイリク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タイリク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップをクリックすると</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その国の名前と少し国の内容が書かれたボードが出てきます。そして名前の下に赤字でバトルと書かれた少し薄い白いボードをクリックするとバトル画面にいき、その国と戦うことができます。</t>
+    <rPh sb="2" eb="3">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の国の周りの３方向の矢印が現段階で選択できる敵国になっています。初めなので難易度は簡単で数字が書かれた順番に国を選択できます。現在考えているのは３つですが段々と増やす予定です。増やしたステージは自由に選択できる予定です。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ダンダン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1146,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,6 +1519,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,6 +1549,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1309,6 +1606,2631 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 代替処理 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2105026"/>
+          <a:ext cx="1104900" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8792</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="1351251"/>
+          <a:ext cx="6304817" cy="3725574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="1419226"/>
+          <a:ext cx="2657475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="HG正楷書体-PRO" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
+              <a:ea typeface="HG正楷書体-PRO" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
+            </a:rPr>
+            <a:t>アド・ナチオ大陸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="5810250"/>
+          <a:ext cx="3371849" cy="2286001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="左矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="6410325"/>
+          <a:ext cx="685800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31481"/>
+            <a:gd name="adj2" fmla="val 46296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="5810250"/>
+          <a:ext cx="3371849" cy="2286001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="三方向矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4857749" y="6915150"/>
+          <a:ext cx="1685925" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 23571"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457951" y="7191375"/>
+          <a:ext cx="285750" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="7524750"/>
+          <a:ext cx="285749" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581524" y="6886576"/>
+          <a:ext cx="295275" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>620681</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591424" y="5800724"/>
+          <a:ext cx="1944657" cy="2524126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9629775" y="5772149"/>
+          <a:ext cx="2686050" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457199" y="5838824"/>
+          <a:ext cx="1057275" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ここから説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>667289</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217233</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="左矢印 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3797291">
+          <a:off x="8773502" y="7568219"/>
+          <a:ext cx="482517" cy="235744"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21548"/>
+            <a:gd name="adj2" fmla="val 152907"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF66B4C-90A9-694B-FFD0-661A3B4FE9D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2061883" y="2353754"/>
+          <a:ext cx="7496735" cy="4128636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0DA5D0-0FE1-A538-01AA-C17F86BA4A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6454588" y="997324"/>
+          <a:ext cx="2173941" cy="840441"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49740"/>
+            <a:gd name="adj2" fmla="val 113041"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>誰の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボードが分かるようにしている。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D50C67-E3E8-B50D-CDCE-706C0A5DBD20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10634381" y="1299882"/>
+          <a:ext cx="2756648" cy="1299883"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -99013"/>
+            <a:gd name="adj2" fmla="val 90840"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コスト数値ボード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニット（キャラ）の召喚、移動、強化をするのに必要なコストを今自分がどれだけ持っているかまた最大でどのぐらい持てるのか表示している</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3471A95B-0E23-C6E4-E61E-37A34C635261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10936941" y="3204883"/>
+          <a:ext cx="2454088" cy="1120588"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -113140"/>
+            <a:gd name="adj2" fmla="val 42152"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットの人数ボード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニット（キャラ）がフィールドに何体召喚されているのかまたフィールドに出せるユニットの最大数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8127D29D-5DEF-F80D-63D8-5B70747D71D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10264589" y="5098678"/>
+          <a:ext cx="3115235" cy="1064558"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -82782"/>
+            <a:gd name="adj2" fmla="val -70265"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自分の城の耐久数値ボード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自分の城の残り耐久値と元々の最大耐久値が表示されている。矢印を押すと数値ボードの長さが拡張される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C76987B-38CC-2793-C52E-2976F27E0680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12124765" y="6426214"/>
+          <a:ext cx="1949823" cy="1875118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71CCA48-34D2-EF88-0EC2-8B9543CD2028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14735735" y="6073591"/>
+          <a:ext cx="3182471" cy="1165410"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -74855"/>
+            <a:gd name="adj2" fmla="val 43592"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自分の城の耐久値ボード拡張</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>は毎ターン５づつ回復されます。コスト資源を５０で強化すると毎ターン強化されるたびに＋１づつ回復量が増える。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3103131B-618E-9C42-E3E7-307343AB1B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7956177" y="7138147"/>
+          <a:ext cx="3955675" cy="1994647"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31240"/>
+            <a:gd name="adj2" fmla="val -114026"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニット（キャラ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マップに召喚するためのユニットを表示している。マウスでクリックするとマップに召喚される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニット三すくみ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>歩兵より弓兵のほうが強い</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>弓兵よりカタパルトのほうが強い</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カタパルトより歩兵のほうが強い</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638734</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>201704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D65C6A-696D-2BCE-68A4-B13DE0DF64EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2005852" y="7261410"/>
+          <a:ext cx="2454089" cy="829237"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37789"/>
+            <a:gd name="adj2" fmla="val -152431"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一マスづつ分かれているユニットを召喚する場所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40BA621-83AA-F9A0-8097-8ECE006FB6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6947646" y="6958853"/>
+          <a:ext cx="930088" cy="638736"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3966"/>
+            <a:gd name="adj2" fmla="val -175147"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>城</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自分の城</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="吹き出し: 四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E5DA2D-F1F1-85F5-1657-E8CFD8FDD99E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311588" y="6667501"/>
+          <a:ext cx="1165411" cy="694764"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46898"/>
+            <a:gd name="adj2" fmla="val -181789"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>木</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>資源を取る場所</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="吹き出し: 四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB29AC84-2A29-AA49-CBF1-F449643045CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4437530" y="8460441"/>
+          <a:ext cx="1725705" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18676"/>
+            <a:gd name="adj2" fmla="val -442527"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>山</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユニットが通れないマス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="吹き出し: 四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DC33AD-B817-0E4F-CB0E-C403C76AC64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3630706" y="1355912"/>
+          <a:ext cx="1333500" cy="728382"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12430"/>
+            <a:gd name="adj2" fmla="val 117885"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>城</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敵の城</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="吹き出し: 四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3FAFAF-F801-6315-3EB4-B095B99F21A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5154706" y="1221442"/>
+          <a:ext cx="1165412" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -74771"/>
+            <a:gd name="adj2" fmla="val 147900"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敵のユニット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="吹き出し: 四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02CF796-541E-860B-4F7B-E51AB7E8258F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6275294" y="7754470"/>
+          <a:ext cx="1277470" cy="661148"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5272"/>
+            <a:gd name="adj2" fmla="val -353522"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自分のユニット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="吹き出し: 四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D68FAE3-7BD3-5B3E-36C9-DA8793C33B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400735" y="1210236"/>
+          <a:ext cx="1143000" cy="750794"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53677"/>
+            <a:gd name="adj2" fmla="val 98321"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敵の名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="吹き出し: 四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2B619F-E6A1-2655-AC00-C6F027D3B15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="168088" y="2196352"/>
+          <a:ext cx="1501588" cy="661148"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 97031"/>
+            <a:gd name="adj2" fmla="val 89545"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コスト数値ボード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敵の数値ボード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>459439</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="吹き出し: 四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BA0652-200F-1CCB-B19F-63B75C245B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="156880" y="3227296"/>
+          <a:ext cx="1669677" cy="661145"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 81875"/>
+            <a:gd name="adj2" fmla="val 69697"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニット人数ボード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敵のユニット情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="吹き出し: 四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CA4D78-305B-CDD2-EF2F-C9215B4D3147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134471" y="4157383"/>
+          <a:ext cx="1501588" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99317"/>
+            <a:gd name="adj2" fmla="val 50636"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>城の耐久値ボード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敵の城情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369795</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="吹き出し: 四角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6118A496-D2F2-2B27-1E90-2AE2F4B6DC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201707" y="5132294"/>
+          <a:ext cx="1535206" cy="963705"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 203904"/>
+            <a:gd name="adj2" fmla="val -72813"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>川</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットに対しての障害物</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="吹き出し: 四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B55F9F-F18B-11B7-B5F0-258F138E65E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190499" y="6510617"/>
+          <a:ext cx="1479177" cy="694765"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 242803"/>
+            <a:gd name="adj2" fmla="val -291551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>橋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットが通れる道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3244,1860 +6166,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128655</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF66B4C-90A9-694B-FFD0-661A3B4FE9D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2061883" y="2353754"/>
-          <a:ext cx="7496735" cy="4128636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>425823</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0DA5D0-0FE1-A538-01AA-C17F86BA4A6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6454588" y="997324"/>
-          <a:ext cx="2173941" cy="840441"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 49740"/>
-            <a:gd name="adj2" fmla="val 113041"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>名前</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>誰の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>UI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ボードが分かるようにしている。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>403411</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D50C67-E3E8-B50D-CDCE-706C0A5DBD20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10634381" y="1299882"/>
-          <a:ext cx="2756648" cy="1299883"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -99013"/>
-            <a:gd name="adj2" fmla="val 90840"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>コスト数値ボード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニット（キャラ）の召喚、移動、強化をするのに必要なコストを今自分がどれだけ持っているかまた最大でどのぐらい持てるのか表示している</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>403411</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3471A95B-0E23-C6E4-E61E-37A34C635261}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10936941" y="3204883"/>
-          <a:ext cx="2454088" cy="1120588"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -113140"/>
-            <a:gd name="adj2" fmla="val 42152"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニットの人数ボード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニット（キャラ）がフィールドに何体召喚されているのかまたフィールドに出せるユニットの最大数</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8127D29D-5DEF-F80D-63D8-5B70747D71D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10264589" y="5098678"/>
-          <a:ext cx="3115235" cy="1064558"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -82782"/>
-            <a:gd name="adj2" fmla="val -70265"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>自分の城の耐久数値ボード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>自分の城の残り耐久値と元々の最大耐久値が表示されている。矢印を押すと数値ボードの長さが拡張される。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>72479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>65008</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C76987B-38CC-2793-C52E-2976F27E0680}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12124765" y="6426214"/>
-          <a:ext cx="1949823" cy="1875118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190503</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71CCA48-34D2-EF88-0EC2-8B9543CD2028}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14735735" y="6073591"/>
-          <a:ext cx="3182471" cy="1165410"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -74855"/>
-            <a:gd name="adj2" fmla="val 43592"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>自分の城の耐久値ボード拡張</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>AP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>は毎ターン５づつ回復されます。コスト資源を５０で強化すると毎ターン強化されるたびに＋１づつ回復量が増える。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>291352</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3103131B-618E-9C42-E3E7-307343AB1B60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7956177" y="7138147"/>
-          <a:ext cx="3955675" cy="1994647"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -31240"/>
-            <a:gd name="adj2" fmla="val -114026"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニット（キャラ）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>マップに召喚するためのユニットを表示している。マウスでクリックするとマップに召喚される。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニット三すくみ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>歩兵より弓兵のほうが強い</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>弓兵よりカタパルトのほうが強い</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>カタパルトより歩兵のほうが強い</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638734</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>201704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D65C6A-696D-2BCE-68A4-B13DE0DF64EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2005852" y="7261410"/>
-          <a:ext cx="2454089" cy="829237"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37789"/>
-            <a:gd name="adj2" fmla="val -152431"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>マップ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>一マスづつ分かれているユニットを召喚する場所</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358587</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40BA621-83AA-F9A0-8097-8ECE006FB6BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6947646" y="6958853"/>
-          <a:ext cx="930088" cy="638736"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3966"/>
-            <a:gd name="adj2" fmla="val -175147"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>城</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分の城</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="吹き出し: 四角形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E5DA2D-F1F1-85F5-1657-E8CFD8FDD99E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5311588" y="6667501"/>
-          <a:ext cx="1165411" cy="694764"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -46898"/>
-            <a:gd name="adj2" fmla="val -181789"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>木</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>資源を取る場所</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="吹き出し: 四角形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB29AC84-2A29-AA49-CBF1-F449643045CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4437530" y="8460441"/>
-          <a:ext cx="1725705" cy="605117"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -18676"/>
-            <a:gd name="adj2" fmla="val -442527"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>山</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユニットが通れないマス</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="吹き出し: 四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DC33AD-B817-0E4F-CB0E-C403C76AC64C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3630706" y="1355912"/>
-          <a:ext cx="1333500" cy="728382"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -12430"/>
-            <a:gd name="adj2" fmla="val 117885"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>城</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>敵の城</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="吹き出し: 四角形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3FAFAF-F801-6315-3EB4-B095B99F21A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5154706" y="1221442"/>
-          <a:ext cx="1165412" cy="761999"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -74771"/>
-            <a:gd name="adj2" fmla="val 147900"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニット</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>敵のユニット</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="吹き出し: 四角形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02CF796-541E-860B-4F7B-E51AB7E8258F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6275294" y="7754470"/>
-          <a:ext cx="1277470" cy="661148"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -5272"/>
-            <a:gd name="adj2" fmla="val -353522"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニット</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分のユニット</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="吹き出し: 四角形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D68FAE3-7BD3-5B3E-36C9-DA8793C33B5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400735" y="1210236"/>
-          <a:ext cx="1143000" cy="750794"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 53677"/>
-            <a:gd name="adj2" fmla="val 98321"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>名前</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>敵の名前</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="吹き出し: 四角形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2B619F-E6A1-2655-AC00-C6F027D3B15A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="168088" y="2196352"/>
-          <a:ext cx="1501588" cy="661148"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 97031"/>
-            <a:gd name="adj2" fmla="val 89545"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>コスト数値ボード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>敵の数値ボード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>156880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>168090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>459439</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="吹き出し: 四角形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BA0652-200F-1CCB-B19F-63B75C245B06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="156880" y="3227296"/>
-          <a:ext cx="1669677" cy="661145"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 81875"/>
-            <a:gd name="adj2" fmla="val 69697"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニット人数ボード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>敵のユニット情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="吹き出し: 四角形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CA4D78-305B-CDD2-EF2F-C9215B4D3147}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="134471" y="4157383"/>
-          <a:ext cx="1501588" cy="717176"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 99317"/>
-            <a:gd name="adj2" fmla="val 50636"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>城の耐久値ボード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>敵の城情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>212911</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="吹き出し: 四角形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6118A496-D2F2-2B27-1E90-2AE2F4B6DC27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="201707" y="5132294"/>
-          <a:ext cx="1535206" cy="963705"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 203904"/>
-            <a:gd name="adj2" fmla="val -72813"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>川</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニットに対しての障害物</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="吹き出し: 四角形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B55F9F-F18B-11B7-B5F0-258F138E65E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190499" y="6510617"/>
-          <a:ext cx="1479177" cy="694765"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 242803"/>
-            <a:gd name="adj2" fmla="val -291551"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>橋</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユニットが通れる道</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5361,9 +6429,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="6"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B17" s="6"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="50"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B18" s="6"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B19" s="6"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B20" s="6"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B21" s="6"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="6"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
+    </row>
+    <row r="24" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B25" s="16"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B26" s="16"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B27" s="16"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="16"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B29" s="16"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="16"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B31" s="16"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="16"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="16"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="16"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
+    </row>
+    <row r="37" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="62"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="62"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="62"/>
+    </row>
+    <row r="39" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="61"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="62"/>
+    </row>
+    <row r="40" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O40" s="56"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="61"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B35:F37"/>
+    <mergeCell ref="G25:K34"/>
+    <mergeCell ref="B23:M24"/>
+    <mergeCell ref="L25:N35"/>
+    <mergeCell ref="O25:R35"/>
+    <mergeCell ref="L36:N37"/>
+    <mergeCell ref="O36:R40"/>
+    <mergeCell ref="G35:K39"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B5:J22"/>
+    <mergeCell ref="B25:F34"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="45"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -6564,59 +8259,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>